--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3637808.113051986</v>
+        <v>3656182.802518106</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>320.8363757697447</v>
+        <v>296.8174529500245</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>54.47555601903409</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>255.8465157203133</v>
+        <v>66.81653105453911</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.3165606401897</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>62.70305798262075</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>15.94830397803332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>95.65251438927793</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>54.70191565295211</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.9664138887671</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.526976800218</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1783,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>21.86696197154582</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.5415013444905</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="18">
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>13.64109019468236</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2053,7 +2053,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>101.8437358398288</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>104.3517462601987</v>
       </c>
       <c r="U22" t="n">
-        <v>235.2707607354178</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>135.7815165686133</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>122.6519788371604</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498035</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>97.53853895610997</v>
       </c>
       <c r="T28" t="n">
-        <v>46.88968460526697</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>37.75862782376941</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>128.2693160379189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>7.312945786385976</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>245.8447460296577</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3424,16 +3424,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>131.5416277745654</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>183.4653217847141</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3481,16 +3481,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>70.02468195576053</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051966</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>240.7521808749676</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113157</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4138,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>138.5030164308152</v>
+        <v>26.99319854866558</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1293.182375355301</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C2" t="n">
-        <v>924.2198584148889</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D2" t="n">
-        <v>924.2198584148889</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="E2" t="n">
-        <v>538.4316058166446</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="F2" t="n">
-        <v>531.4861050674411</v>
+        <v>353.7585908607932</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.921547395234</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1679.782215419422</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4562,55 +4562,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500979</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500979</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1859.412473230864</v>
       </c>
       <c r="X5" t="n">
-        <v>1812.286255290752</v>
+        <v>1791.921027721229</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4635,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641981</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598701</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>678.1902866356228</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>678.1902866356228</v>
       </c>
       <c r="T7" t="n">
-        <v>635.3756428553887</v>
+        <v>678.1902866356228</v>
       </c>
       <c r="U7" t="n">
-        <v>635.3756428553887</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="V7" t="n">
-        <v>380.6911546495019</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W7" t="n">
-        <v>380.6911546495019</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6911546495019</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6911546495019</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.712458167646</v>
+        <v>2001.758776122687</v>
       </c>
       <c r="C8" t="n">
-        <v>880.7499412272348</v>
+        <v>1632.796259182275</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1274.530560575525</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>888.7423079772802</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>477.7564031876727</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>2388.358616186808</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641981</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598701</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="T10" t="n">
-        <v>643.4576048045491</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="U10" t="n">
-        <v>354.283994459117</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>409.2948950230962</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>409.2948950230962</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5030,13 +5030,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5063,25 +5063,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,16 +5270,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,37 +5288,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>565.9270610048577</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048577</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035281</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.921157035281</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.921157035281</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="W16" t="n">
-        <v>898.50398699832</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="X16" t="n">
-        <v>670.5144361003026</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.9270610048577</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="17">
@@ -5510,49 +5510,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5580,34 +5580,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.7003690904323</v>
+        <v>896.5552164996853</v>
       </c>
       <c r="C19" t="n">
-        <v>562.7003690904323</v>
+        <v>727.6190335717785</v>
       </c>
       <c r="D19" t="n">
-        <v>562.7003690904323</v>
+        <v>577.5023941594427</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>429.5893005770496</v>
       </c>
       <c r="F19" t="n">
         <v>415.8104215925219</v>
@@ -5665,16 +5665,16 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X19" t="n">
-        <v>847.2212943649436</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.3488339206721</v>
+        <v>1078.203681329925</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>3128.721707800139</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>3436.0418410801</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N21" t="n">
-        <v>3765.904468744133</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962831</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>3925.098163754829</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>3756.161980826922</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>4660.934562929847</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>4555.528758626616</v>
       </c>
       <c r="U22" t="n">
-        <v>1037.48362228133</v>
+        <v>4555.528758626616</v>
       </c>
       <c r="V22" t="n">
-        <v>782.7991340754431</v>
+        <v>4555.528758626616</v>
       </c>
       <c r="W22" t="n">
-        <v>493.3819640384826</v>
+        <v>4555.528758626616</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404652</v>
+        <v>4327.539207728599</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>4106.746628585069</v>
       </c>
     </row>
     <row r="23">
@@ -5984,34 +5984,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>552.6620995918043</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>552.6620995918043</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>402.5454601794686</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>402.5454601794686</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>402.5454601794686</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>234.3701384992892</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>734.3105644220441</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,19 +6215,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.223678370532</v>
+        <v>821.846685011157</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581963</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581963</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1400.392493834559</v>
       </c>
       <c r="T28" t="n">
-        <v>1340.47784933663</v>
+        <v>1400.392493834559</v>
       </c>
       <c r="U28" t="n">
-        <v>1051.349210550189</v>
+        <v>1111.263855048118</v>
       </c>
       <c r="V28" t="n">
-        <v>796.6647223443018</v>
+        <v>1111.263855048118</v>
       </c>
       <c r="W28" t="n">
-        <v>796.6647223443018</v>
+        <v>821.846685011157</v>
       </c>
       <c r="X28" t="n">
-        <v>796.6647223443018</v>
+        <v>821.846685011157</v>
       </c>
       <c r="Y28" t="n">
-        <v>575.8721432007717</v>
+        <v>821.846685011157</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823761</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,16 +6546,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>282.2470670630138</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>282.2470670630138</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>282.2470670630138</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1258.27620142486</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1258.27620142486</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>1258.27620142486</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V31" t="n">
-        <v>1003.591713218973</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W31" t="n">
-        <v>714.1745431820127</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X31" t="n">
-        <v>486.1849922839954</v>
+        <v>503.0396462065439</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3924131404652</v>
+        <v>282.2470670630138</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6704,22 +6704,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6783,13 +6783,13 @@
         <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766204</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
         <v>1808.163466324677</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>738.7219969042607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>569.7858139763538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>419.669174564018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>419.669174564018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>272.7792270661076</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>104.6039053859282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6883,25 +6883,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617345004</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X34" t="n">
-        <v>920.3704617345004</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y34" t="n">
-        <v>920.3704617345004</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.0071030383447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247865</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383447</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V37" t="n">
-        <v>675.0071030383447</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W37" t="n">
-        <v>675.0071030383447</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>675.0071030383447</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>675.0071030383447</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3845.975811154763</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.975811154763</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3775.243809179247</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>4571.72593422785</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>4317.041446021964</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>4027.624275985003</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X40" t="n">
-        <v>4027.624275985003</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y40" t="n">
-        <v>4027.624275985003</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7476,19 +7476,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
         <v>674.428562457161</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,13 +7585,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
@@ -7600,19 +7600,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1055.812239387629</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1055.812239387629</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>766.3950693506686</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>766.3950693506686</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>766.3950693506686</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003439</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155874</v>
+        <v>904.3190116155868</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805449</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>710.3120936331045</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3120936331045</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.094223674652</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U46" t="n">
-        <v>1159.094223674652</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V46" t="n">
-        <v>1159.094223674652</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W46" t="n">
-        <v>1159.094223674652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X46" t="n">
-        <v>931.1046727766346</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y46" t="n">
-        <v>710.3120936331045</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169141999</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270185</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719069</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445216</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,22 +9483,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>360.5026862907235</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>15.83804904622801</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720712</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297922</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297922</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445216</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338523</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.09739043224695</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.0431520076043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>131.7799578282489</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>116.740917512266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>117.1958147981906</v>
       </c>
       <c r="U22" t="n">
-        <v>50.96659166315956</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>13.13231179892287</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,7 +24415,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>103.0576765518767</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>100.3822710274933</v>
       </c>
       <c r="T28" t="n">
-        <v>174.6578764531223</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>108.6753348227998</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>69.65149394568431</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6008825811502</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,7 +25123,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.6782523069333</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25312,16 +25312,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>35.70519332406244</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>14.4554881988891</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>78.59079106245183</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25600,7 +25600,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,19 +25840,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>45.48517152360975</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>83.04454462757406</v>
+        <v>194.5543625097237</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="J2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147618</v>
-      </c>
-      <c r="G2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147619</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147617</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147623</v>
-      </c>
       <c r="K2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="L2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="N2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="P2" t="n">
         <v>723403.7605147613</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.153803310046593e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029925</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.5455523024</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029917</v>
+        <v>29303.54555230239</v>
       </c>
     </row>
     <row r="5">
@@ -26470,31 +26470,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26506,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90382.41863876008</v>
+        <v>-87854.09747531777</v>
       </c>
       <c r="C6" t="n">
-        <v>499585.4605757844</v>
+        <v>502113.7817392266</v>
       </c>
       <c r="D6" t="n">
-        <v>499585.4605757844</v>
+        <v>502113.7817392266</v>
       </c>
       <c r="E6" t="n">
-        <v>74918.03329884903</v>
+        <v>76952.85253684656</v>
       </c>
       <c r="F6" t="n">
-        <v>600078.069775746</v>
+        <v>602112.8890137426</v>
       </c>
       <c r="G6" t="n">
-        <v>600078.0697757456</v>
+        <v>602112.8890137423</v>
       </c>
       <c r="H6" t="n">
-        <v>600078.0697757461</v>
+        <v>602112.8890137426</v>
       </c>
       <c r="I6" t="n">
-        <v>600078.0697757459</v>
+        <v>602112.8890137426</v>
       </c>
       <c r="J6" t="n">
-        <v>423654.8505831534</v>
+        <v>425689.6698211493</v>
       </c>
       <c r="K6" t="n">
-        <v>600078.0697757456</v>
+        <v>602112.8890137424</v>
       </c>
       <c r="L6" t="n">
-        <v>600078.0697757456</v>
+        <v>602112.8890137423</v>
       </c>
       <c r="M6" t="n">
-        <v>465277.0545419084</v>
+        <v>467311.8737799056</v>
       </c>
       <c r="N6" t="n">
-        <v>600078.0697757456</v>
+        <v>602112.8890137424</v>
       </c>
       <c r="O6" t="n">
-        <v>600078.0697757455</v>
+        <v>602112.8890137421</v>
       </c>
       <c r="P6" t="n">
-        <v>600078.0697757455</v>
+        <v>602112.8890137423</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26701,19 +26701,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.19172530040284e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541004</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26802,16 +26802,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="J4" t="n">
         <v>1215.213643253573</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1215.213643253573</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1215.213643253573</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>92.94779425105031</v>
+        <v>116.9667170707705</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>197.6620873047939</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>113.8845849581557</v>
+        <v>302.9145696239299</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>126.3486313399681</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>162.3320474754635</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>338.7347376426496</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>318.131655631517</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>170.3331898051322</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.61823946332768</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.094947017729284e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770699</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047512</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624582</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504664</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504664</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.580930408112</v>
@@ -35966,7 +35966,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504664</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109073</v>
@@ -36203,22 +36203,22 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>609.7603912467479</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>222.9314639777528</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109073</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36449,13 +36449,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>487.1420318003109</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415054</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504664</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
@@ -37160,7 +37160,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714619</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349491</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349491</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
@@ -38114,7 +38114,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3724695.4572912</v>
+        <v>3729634.720140231</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7903015.407149072</v>
+        <v>7903015.407149073</v>
       </c>
     </row>
     <row r="11">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>193.5789072793779</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>75.98873000807177</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>140.1336128527359</v>
+        <v>134.0618870358389</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>390.7529822392018</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>2.559953614029148</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>28.11374845278267</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>131.4435078806671</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>107.301303802437</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.54110646053103</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964031</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051995</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>107.0087045428517</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.15010423076809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>64.32381826160521</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>115.5269768002181</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>146.2787299119464</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>28.22523322473833</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2769,10 +2769,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>271.7818641996879</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>192.3228038217186</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>5.107731335945568</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>115.5269768002176</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,16 +4354,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2501.614841241073</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2501.614841241073</v>
       </c>
       <c r="V2" t="n">
         <v>2170.551953897502</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.8207968750362</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C4" t="n">
-        <v>500.8207968750362</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="D4" t="n">
-        <v>500.8207968750362</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="E4" t="n">
-        <v>500.8207968750362</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
         <v>190.2718927217162</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.8207968750362</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2491605982752</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C5" t="n">
-        <v>936.2491605982752</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>936.2491605982752</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>936.2491605982752</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>929.3036598490718</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4564,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859355</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982752</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982752</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816298</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837194</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H7" t="n">
         <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>991.2778500677821</v>
+        <v>604.6780100036594</v>
       </c>
       <c r="C8" t="n">
-        <v>991.2778500677821</v>
+        <v>604.6780100036594</v>
       </c>
       <c r="D8" t="n">
-        <v>991.2778500677821</v>
+        <v>604.6780100036594</v>
       </c>
       <c r="E8" t="n">
-        <v>991.2778500677821</v>
+        <v>604.6780100036594</v>
       </c>
       <c r="F8" t="n">
-        <v>580.2919452781746</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>162.3281371763615</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2302.336936304454</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1717.512263598975</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677821</v>
+        <v>991.2778500677812</v>
       </c>
       <c r="Y8" t="n">
-        <v>991.2778500677821</v>
+        <v>991.2778500677812</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477204</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653273</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674169</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610019</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>184.2708856551151</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036443</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,28 +5062,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>444.8933943850835</v>
+        <v>523.5986531011361</v>
       </c>
       <c r="C13" t="n">
-        <v>444.8933943850835</v>
+        <v>523.5986531011361</v>
       </c>
       <c r="D13" t="n">
-        <v>294.7767549727478</v>
+        <v>373.4820136888003</v>
       </c>
       <c r="E13" t="n">
-        <v>146.8636613903547</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>146.8636613903547</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>146.8636613903547</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>146.8636613903547</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655742</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286137</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286137</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850835</v>
+        <v>705.2471179313758</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201021</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201021</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201021</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201021</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F16" t="n">
-        <v>213.9110074201021</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>213.9110074201021</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,13 +5439,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181194</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201021</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201021</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.785243411008</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555207</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,31 +5691,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,28 +5743,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5776,7 +5776,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811264</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441658</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,22 +5980,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>755.1831334811264</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441658</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>237.7764125461485</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028587</v>
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,13 +6238,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1470.405933967258</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1270.48592388281</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="U28" t="n">
-        <v>800.6837097077201</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="V28" t="n">
-        <v>545.9992215018333</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6648,19 +6648,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="35">
@@ -6919,43 +6919,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7122,19 +7122,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,7 +7168,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7359,10 +7359,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7426,16 +7426,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415606</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814591</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119831</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>39.42525810371747</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>61.26914123350388</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>81.09722976132603</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>33.38685156731808</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>79.43092547709077</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>79.4309254770908</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>81.73911917905447</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>14.45548819888944</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>33.38685156731856</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>213.4769220161492</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.3050033817197</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147618</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="H2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>723403.7605147614</v>
       </c>
-      <c r="H2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="J2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="K2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="L2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="M2" t="n">
         <v>723403.760514761</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147612</v>
       </c>
       <c r="N2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="O2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="P2" t="n">
         <v>723403.7605147611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.7605147612</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218263</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230237</v>
+      </c>
+      <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="F4" t="n">
-        <v>29303.54555230231</v>
-      </c>
       <c r="G4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26447,7 +26447,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26456,7 +26456,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87854.09747531803</v>
+        <v>-87854.09747531815</v>
       </c>
       <c r="C6" t="n">
-        <v>502113.7817392269</v>
+        <v>502113.7817392266</v>
       </c>
       <c r="D6" t="n">
-        <v>502113.7817392268</v>
+        <v>502113.7817392267</v>
       </c>
       <c r="E6" t="n">
-        <v>75978.26127712421</v>
+        <v>76855.39341087427</v>
       </c>
       <c r="F6" t="n">
-        <v>601138.2977540208</v>
+        <v>602015.4298877704</v>
       </c>
       <c r="G6" t="n">
-        <v>601138.2977540209</v>
+        <v>602015.42988777</v>
       </c>
       <c r="H6" t="n">
-        <v>601138.297754021</v>
+        <v>602015.4298877702</v>
       </c>
       <c r="I6" t="n">
-        <v>601138.2977540208</v>
+        <v>602015.4298877703</v>
       </c>
       <c r="J6" t="n">
-        <v>424715.078561428</v>
+        <v>425592.2106951771</v>
       </c>
       <c r="K6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.42988777</v>
       </c>
       <c r="L6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.4298877701</v>
       </c>
       <c r="M6" t="n">
-        <v>466337.2825201834</v>
+        <v>467214.4146539326</v>
       </c>
       <c r="N6" t="n">
-        <v>601138.2977540205</v>
+        <v>602015.4298877701</v>
       </c>
       <c r="O6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.4298877701</v>
       </c>
       <c r="P6" t="n">
-        <v>601138.2977540205</v>
+        <v>602015.42988777</v>
       </c>
     </row>
   </sheetData>
@@ -26740,28 +26740,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>22.8694130782799</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>251.7635284620631</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>5.28743517019538</v>
+        <v>11.35916098709237</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>23.03118778159319</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>383.6779850420244</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>275.4325378610444</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>216.6214689619201</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>14.65885272800598</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775188</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330527</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
